--- a/CPL_JLCSMT.xlsx
+++ b/CPL_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="155">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -448,10 +448,16 @@
     <t xml:space="preserve">R57</t>
   </si>
   <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
     <t xml:space="preserve">RV1</t>
   </si>
   <si>
     <t xml:space="preserve">RV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -601,10 +607,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,16 +2956,16 @@
         <v>142</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>189.575</v>
+        <v>185.17</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>-67.595</v>
+        <v>-58.47</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,10 +2973,10 @@
         <v>143</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>194.75</v>
+        <v>189.575</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>-90.3</v>
+        <v>-67.595</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>6</v>
@@ -2984,16 +2990,16 @@
         <v>144</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>220.475</v>
+        <v>194.75</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>-65.1</v>
+        <v>-90.3</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3007,10 @@
         <v>145</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>202.825</v>
+        <v>180.92</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>-70.87</v>
+        <v>-54.53</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>6</v>
@@ -3018,16 +3024,16 @@
         <v>146</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>203</v>
+        <v>220.475</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>-63.475</v>
+        <v>-65.1</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,16 +3041,16 @@
         <v>147</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>195.425</v>
+        <v>202.825</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>-56.175</v>
+        <v>-70.87</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,16 +3058,16 @@
         <v>148</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>195.025</v>
+        <v>203</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>-83</v>
+        <v>-63.475</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,16 +3075,16 @@
         <v>149</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>174.7</v>
+        <v>195.425</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>-71.3125</v>
+        <v>-56.175</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,16 +3092,16 @@
         <v>150</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>222</v>
+        <v>195.025</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>-87.475</v>
+        <v>-83</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3109,10 @@
         <v>151</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>205.8</v>
+        <v>174.7</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>-93.625</v>
+        <v>-71.3125</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>6</v>
@@ -3120,15 +3126,49 @@
         <v>152</v>
       </c>
       <c r="B148" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>-87.475</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>-93.625</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="0" t="n">
         <v>207.6</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C150" s="0" t="n">
         <v>-85.95</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" s="0" t="n">
+      <c r="D150" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
